--- a/Test/MC_Ssf/T1/Sensors_data_1000019.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000019.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2523157794081176</v>
+        <v>0.9516698223477599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04133501326146177</v>
+        <v>0.002671888050014892</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3524924880922066</v>
+        <v>-0.008156561026981313</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.03406065257957747</v>
+        <v>0.9096810653792858</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03794068456237542</v>
+        <v>0.003313888986981462</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9412442813349758</v>
+        <v>-0.005881058161683939</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8684090955957219</v>
+        <v>0.9909545991305168</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006085264367482936</v>
+        <v>0.0004182937707575802</v>
       </c>
       <c r="E4" t="n">
-        <v>0.378276506351345</v>
+        <v>-0.006481404645551025</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8851101647852363</v>
+        <v>0.966555099114572</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005621359703024029</v>
+        <v>0.001636400798708936</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00015651641835146</v>
+        <v>-0.01239364372501939</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.7557379838792366</v>
+        <v>-0.6891287375732735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07555822462685376</v>
+        <v>0.07269169417594248</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9417336340450597</v>
+        <v>0.9323822336493288</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.4379991454626433</v>
+        <v>-0.3072746539664137</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06183236775233843</v>
+        <v>0.05621135966068774</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4354034586238718</v>
+        <v>0.4278807467082847</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -625,13 +625,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.373379520082864</v>
+        <v>-1.397011607385273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08394859336147795</v>
+        <v>0.08478448179417314</v>
       </c>
       <c r="E8" t="n">
-        <v>0.529711110095702</v>
+        <v>0.5267518000614263</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
